--- a/Resources/vanda_and_young_finalists_2021_summary.xlsx
+++ b/Resources/vanda_and_young_finalists_2021_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minoperic/Data Analytics/Data Investigations/vanda-and-young-finalists-2021/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FEE299-C141-FD40-B05F-2E92BE1E7586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DAE401-CC35-3D49-8C28-A075FD50E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2180" windowWidth="29040" windowHeight="18380" xr2:uid="{27569121-A3D7-E74E-93A5-6083A5AC576E}"/>
   </bookViews>
@@ -683,12 +683,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5CB79B-6A21-8B49-9899-9778AACC683C}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,19 +701,18 @@
     <col min="6" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -771,39 +770,38 @@
       <c r="S1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" t="s">
+      <c r="W1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
         <v>87</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AA1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AB1" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -816,41 +814,41 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="T2" s="1">
+        <v>14</v>
+      </c>
       <c r="U2" s="1">
-        <v>14</v>
-      </c>
-      <c r="V2" s="1">
         <v>26</v>
       </c>
-      <c r="W2" s="3">
+      <c r="V2" s="3">
         <v>0.65</v>
       </c>
+      <c r="W2" s="1">
+        <v>3837</v>
+      </c>
       <c r="X2" s="1">
-        <v>3837</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="1">
-        <v>64</v>
+        <v>191850</v>
       </c>
       <c r="Z2" s="1">
-        <v>191850</v>
+        <v>1600000</v>
       </c>
       <c r="AA2" s="1">
-        <v>1600000</v>
-      </c>
-      <c r="AB2" s="1">
         <f>40*50</f>
         <v>2000</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AB2" s="1">
         <f>26*50</f>
         <v>1300</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AC2" s="1">
         <f>14*50</f>
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -869,9 +867,9 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -899,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
@@ -913,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -976,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1479,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1593,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1678,7 +1676,6 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
